--- a/data/José RomeroT2-2024.xlsx
+++ b/data/José RomeroT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>53.57362749</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -1288,6 +1290,7 @@
         <v>0.0106036</v>
       </c>
     </row>
+    <row r="51"/>
     <row r="52">
       <c r="D52" s="6" t="inlineStr">
         <is>
@@ -1313,7 +1316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1326,6 +1329,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1333,6 +1338,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1340,6 +1346,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1683,6 +1690,7 @@
         <v>5.82e-06</v>
       </c>
     </row>
+    <row r="34"/>
     <row r="35">
       <c r="C35" s="6" t="inlineStr">
         <is>
@@ -1708,7 +1716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1721,6 +1729,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1728,6 +1738,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1735,6 +1746,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1831,6 +1843,7 @@
         <v>7.546e-05</v>
       </c>
     </row>
+    <row r="15"/>
     <row r="16">
       <c r="C16" s="6" t="inlineStr">
         <is>
